--- a/CSM_Karthi/TestData/CSMTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId3"/>
@@ -19,12 +19,13 @@
     <sheet name="CheuqeBookRequestExecutionTrack" sheetId="10" r:id="rId12"/>
     <sheet name="CSM_ChargeWaiverTestData" sheetId="11" r:id="rId13"/>
   </sheets>
+  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="228">
   <si>
     <t>Stage</t>
   </si>
@@ -44,7 +45,7 @@
     <t>CSMUser1</t>
   </si>
   <si>
-    <t>ANANDH</t>
+    <t>KARTHIK</t>
   </si>
   <si>
     <t>CSMParamUser1</t>
@@ -374,7 +375,7 @@
     <t>DS01_TC_CW_003</t>
   </si>
   <si>
-    <t>7277</t>
+    <t>7291</t>
   </si>
   <si>
     <t>TC_CW_004</t>
@@ -389,7 +390,7 @@
     <t>034</t>
   </si>
   <si>
-    <t>7278</t>
+    <t>7292</t>
   </si>
   <si>
     <t>TC_CW_005</t>
@@ -398,7 +399,7 @@
     <t>DS01_TC_CW_005</t>
   </si>
   <si>
-    <t>7279</t>
+    <t>7293</t>
   </si>
   <si>
     <t>TC_CW_006</t>
@@ -407,270 +408,276 @@
     <t>DS01_TC_CW_006</t>
   </si>
   <si>
+    <t>7294</t>
+  </si>
+  <si>
     <t>TC_CW_007</t>
   </si>
   <si>
     <t>DS01_TC_CW_007</t>
   </si>
   <si>
+    <t>7295</t>
+  </si>
+  <si>
+    <t>TC_CW_019</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_019</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>9601</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_020</t>
+  </si>
+  <si>
+    <t>TC_CW_020</t>
+  </si>
+  <si>
+    <t>TC_CW_021</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_021</t>
+  </si>
+  <si>
+    <t>TC_CW_022</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_022</t>
+  </si>
+  <si>
+    <t>Close SO</t>
+  </si>
+  <si>
+    <t>TC_CW_023</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_023</t>
+  </si>
+  <si>
+    <t>7250</t>
+  </si>
+  <si>
+    <t>CANCEL TRX</t>
+  </si>
+  <si>
+    <t>Number Of ChequeBook</t>
+  </si>
+  <si>
+    <t>Cheque Code</t>
+  </si>
+  <si>
+    <t>account Branch Code</t>
+  </si>
+  <si>
+    <t>Account Currency Code</t>
+  </si>
+  <si>
+    <t>Account Gl code</t>
+  </si>
+  <si>
+    <t>Account CIF Code</t>
+  </si>
+  <si>
+    <t>Account Serial Number</t>
+  </si>
+  <si>
+    <t>ChequeBook Request Number</t>
+  </si>
+  <si>
+    <t>ChequeFrom Number</t>
+  </si>
+  <si>
+    <t>ChequeFrom To Number</t>
+  </si>
+  <si>
+    <t>TC_CW_002</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_002</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>CHB_081</t>
+  </si>
+  <si>
+    <t>DS01_TC_CHB_081</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>96123</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>ExecuteYes/No</t>
+  </si>
+  <si>
+    <t>Dependent Test Case Id_One</t>
+  </si>
+  <si>
+    <t>Dependent Test Case Id_Two</t>
+  </si>
+  <si>
+    <t>Dependent Test Case Id_Three</t>
+  </si>
+  <si>
+    <t>Dependent Test Case Id_Four</t>
+  </si>
+  <si>
+    <t>Dependent Test Case Id_Five</t>
+  </si>
+  <si>
+    <t>Dependent Data Set Id_Five</t>
+  </si>
+  <si>
+    <t>CW_001</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CW_002</t>
+  </si>
+  <si>
+    <t>CW_003</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CW_004</t>
+  </si>
+  <si>
+    <t>CW_005</t>
+  </si>
+  <si>
+    <t>CW_006</t>
+  </si>
+  <si>
+    <t>CW_007</t>
+  </si>
+  <si>
+    <t>CW_019</t>
+  </si>
+  <si>
+    <t>CW_020</t>
+  </si>
+  <si>
+    <t>CW_021</t>
+  </si>
+  <si>
+    <t>CW_022</t>
+  </si>
+  <si>
+    <t>CW_023</t>
+  </si>
+  <si>
+    <t>CW_024</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_024</t>
+  </si>
+  <si>
+    <t>CW_025</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_025</t>
+  </si>
+  <si>
+    <t>CW_026</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_026</t>
+  </si>
+  <si>
+    <t>CW_038</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_038</t>
+  </si>
+  <si>
+    <t>CW_039</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_039</t>
+  </si>
+  <si>
+    <t>CW_040</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_040</t>
+  </si>
+  <si>
+    <t>CW_041</t>
+  </si>
+  <si>
+    <t>DS01_TC_CW_041</t>
+  </si>
+  <si>
+    <t>Certificate Type</t>
+  </si>
+  <si>
+    <t>CIF Number</t>
+  </si>
+  <si>
+    <t>Number Of Bills</t>
+  </si>
+  <si>
+    <t>Total Amount Of Bills</t>
+  </si>
+  <si>
+    <t>Passbook Code</t>
+  </si>
+  <si>
+    <t>Passbook Type</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>7194</t>
+  </si>
+  <si>
+    <t>7195</t>
+  </si>
+  <si>
+    <t>7192</t>
+  </si>
+  <si>
     <t>7193</t>
   </si>
   <si>
-    <t>TC_CW_019</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_019</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>9601</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Suspend</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_020</t>
-  </si>
-  <si>
-    <t>TC_CW_020</t>
-  </si>
-  <si>
-    <t>TC_CW_021</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_021</t>
-  </si>
-  <si>
-    <t>TC_CW_022</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_022</t>
-  </si>
-  <si>
-    <t>Close SO</t>
-  </si>
-  <si>
-    <t>TC_CW_023</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_023</t>
-  </si>
-  <si>
-    <t>7250</t>
-  </si>
-  <si>
-    <t>CANCEL TRX</t>
-  </si>
-  <si>
-    <t>Number Of ChequeBook</t>
-  </si>
-  <si>
-    <t>Cheque Code</t>
-  </si>
-  <si>
-    <t>account Branch Code</t>
-  </si>
-  <si>
-    <t>Account Currency Code</t>
-  </si>
-  <si>
-    <t>Account Gl code</t>
-  </si>
-  <si>
-    <t>Account CIF Code</t>
-  </si>
-  <si>
-    <t>Account Serial Number</t>
-  </si>
-  <si>
-    <t>ChequeBook Request Number</t>
-  </si>
-  <si>
-    <t>ChequeFrom Number</t>
-  </si>
-  <si>
-    <t>ChequeFrom To Number</t>
-  </si>
-  <si>
-    <t>TC_CW_002</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_002</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>CHB_081</t>
-  </si>
-  <si>
-    <t>DS01_TC_CHB_081</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>96123</t>
-  </si>
-  <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Data Set ID</t>
-  </si>
-  <si>
-    <t>ExecuteYes/No</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_One</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Two</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Three</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Four</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Five</t>
-  </si>
-  <si>
-    <t>Dependent Data Set Id_Five</t>
-  </si>
-  <si>
-    <t>CW_001</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>CW_002</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>CW_003</t>
-  </si>
-  <si>
-    <t>CW_004</t>
-  </si>
-  <si>
-    <t>CW_005</t>
-  </si>
-  <si>
-    <t>CW_006</t>
-  </si>
-  <si>
-    <t>CW_007</t>
-  </si>
-  <si>
-    <t>CW_019</t>
-  </si>
-  <si>
-    <t>CW_020</t>
-  </si>
-  <si>
-    <t>CW_021</t>
-  </si>
-  <si>
-    <t>CW_022</t>
-  </si>
-  <si>
-    <t>CW_023</t>
-  </si>
-  <si>
-    <t>CW_024</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_024</t>
-  </si>
-  <si>
-    <t>CW_025</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_025</t>
-  </si>
-  <si>
-    <t>CW_026</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_026</t>
-  </si>
-  <si>
-    <t>CW_038</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_038</t>
-  </si>
-  <si>
-    <t>CW_039</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_039</t>
-  </si>
-  <si>
-    <t>CW_040</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_040</t>
-  </si>
-  <si>
-    <t>CW_041</t>
-  </si>
-  <si>
-    <t>DS01_TC_CW_041</t>
-  </si>
-  <si>
-    <t>Certificate Type</t>
-  </si>
-  <si>
-    <t>CIF Number</t>
-  </si>
-  <si>
-    <t>Number Of Bills</t>
-  </si>
-  <si>
-    <t>Total Amount Of Bills</t>
-  </si>
-  <si>
-    <t>Passbook Code</t>
-  </si>
-  <si>
-    <t>Passbook Type</t>
-  </si>
-  <si>
-    <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>7194</t>
-  </si>
-  <si>
-    <t>7195</t>
-  </si>
-  <si>
-    <t>7192</t>
-  </si>
-  <si>
     <t>01/01/2018</t>
   </si>
   <si>
@@ -702,48 +709,6 @@
   </si>
   <si>
     <t>7847</t>
-  </si>
-  <si>
-    <t>7281</t>
-  </si>
-  <si>
-    <t>7283</t>
-  </si>
-  <si>
-    <t>7284</t>
-  </si>
-  <si>
-    <t>7285</t>
-  </si>
-  <si>
-    <t>7286</t>
-  </si>
-  <si>
-    <t>7287</t>
-  </si>
-  <si>
-    <t>7288</t>
-  </si>
-  <si>
-    <t>7289</t>
-  </si>
-  <si>
-    <t>7290</t>
-  </si>
-  <si>
-    <t>7291</t>
-  </si>
-  <si>
-    <t>7292</t>
-  </si>
-  <si>
-    <t>7293</t>
-  </si>
-  <si>
-    <t>7294</t>
-  </si>
-  <si>
-    <t>7295</t>
   </si>
 </sst>
 </file>
@@ -952,7 +917,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -1012,6 +977,10 @@
       <alignment/>
       <protection/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,6 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,8 +1014,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1052,56 +1028,133 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
@@ -1109,92 +1162,16 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="42">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="Currency" xfId="16" builtinId="4"/>
@@ -1209,29 +1186,34 @@
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
     <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="26"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="27"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="28"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="29"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="30"/>
-    <cellStyle name="Heading_20_1" xfId="31"/>
-    <cellStyle name="Heading1_20_1" xfId="32"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="33"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="34"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="35"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="36"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="37"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="38"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="39"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="40"/>
-    <cellStyle name="Result_20_1" xfId="41"/>
-    <cellStyle name="Result2_20_1" xfId="42"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="43"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="44"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="45"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="46"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="47"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="48"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="49"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="50"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="28"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="29"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="30"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="31"/>
+    <cellStyle name="Heading_20_1" xfId="32"/>
+    <cellStyle name="Heading1_20_1" xfId="33"/>
+    <cellStyle name="Heading1_5f_20_5f_1" xfId="34"/>
+    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="35"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="36"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="37"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="38"/>
+    <cellStyle name="Heading_5f_20_5f_1" xfId="39"/>
+    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="40"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="41"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="42"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="43"/>
+    <cellStyle name="Result_20_1" xfId="44"/>
+    <cellStyle name="Result2_20_1" xfId="45"/>
+    <cellStyle name="Result2_5f_20_5f_1" xfId="46"/>
+    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="47"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="48"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="49"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="50"/>
+    <cellStyle name="Result_5f_20_5f_1" xfId="51"/>
+    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="52"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="53"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="54"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="55"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1608,21 +1590,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548b7a2-c90c-4da8-a333-4f86816a9c5e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bdab7cc7-76ce-4f8b-9736-a4225f7f4976}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="B1">
+      <selection pane="topLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="21.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="48.285714285714285" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="58.857142857142854" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="46.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="38.857142857142854" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="45.714285714285715" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="20.428571428571427" collapsed="true"/>
+    <col min="1" max="1" width="51" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.285714285714285" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.57142857142857" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.285714285714285" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="21.571428571428573" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
@@ -1660,64 +1642,64 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899189f4-eb3a-4087-af59-6cb3f9033683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d37f311b-024e-448b-8211-5537727da8d2}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.144285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="12.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="15.714285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="33" width="33.285714285714285" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="33" width="37.42857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="33" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="33" width="39.857142857142854" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="33" width="40.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="33" width="43.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="33" width="51.42857142857143" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="33" width="42.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="33" width="44.285714285714285" collapsed="true"/>
-    <col min="11" max="16384" style="33" width="12.142857142857142" collapsed="true"/>
+    <col min="1" max="1" width="16.571428571428573" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.142857142857146" style="33" customWidth="1"/>
+    <col min="3" max="3" width="39.57142857142857" style="33" customWidth="1"/>
+    <col min="4" max="4" width="22.142857142857142" style="33" customWidth="1"/>
+    <col min="5" max="5" width="42.142857142857146" style="33" customWidth="1"/>
+    <col min="6" max="6" width="42.285714285714285" style="33" customWidth="1"/>
+    <col min="7" max="7" width="45.42857142857143" style="33" customWidth="1"/>
+    <col min="8" max="8" width="54.42857142857143" style="33" customWidth="1"/>
+    <col min="9" max="9" width="44.857142857142854" style="33" customWidth="1"/>
+    <col min="10" max="10" width="46.857142857142854" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="12.857142857142858" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
       <c r="A1" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.05">
@@ -1725,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -1746,46 +1728,46 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="2.5209" bottom="2.5209" header="2.324" footer="2.324"/>
+  <pageMargins left="0.7" right="0.7" top="2.8162000000000003" bottom="2.8162000000000003" header="2.6193" footer="2.6193"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0fcb91a7-4370-4f07-acdc-f23d543726ed}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2e71bc75-951f-4d4a-8f5b-7397612adf7c}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.424285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="12.144285714285713" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="33" width="43.285714285714285" collapsed="true"/>
-    <col min="3" max="9" customWidth="true" style="33" width="32.857142857142854" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="33" width="36.142857142857146" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="33" width="41.42857142857143" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="33" width="40.57142857142857" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="33" width="32.142857142857146" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="33" width="31.571428571428573" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="33" width="36.714285714285715" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="33" width="40.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="33" width="33.285714285714285" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="33" width="26.571428571428573" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="33" width="30.142857142857142" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="33" width="43.714285714285715" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="33" width="43.285714285714285" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="33" width="42.857142857142854" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="33" width="43.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="33" width="41.285714285714285" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="33" width="31.142857142857142" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="33" width="39.285714285714285" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="33" width="24.857142857142858" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="33" width="35.857142857142854" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="33" width="27.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="33" width="22.714285714285715" collapsed="true"/>
-    <col min="31" max="16384" style="33" width="11.428571428571429" collapsed="true"/>
+    <col min="1" max="1" width="43.285714285714285" style="33" customWidth="1"/>
+    <col min="2" max="2" width="45.714285714285715" style="33" customWidth="1"/>
+    <col min="3" max="9" width="34.714285714285715" style="33" customWidth="1"/>
+    <col min="10" max="10" width="38.142857142857146" style="33" customWidth="1"/>
+    <col min="11" max="11" width="43.714285714285715" style="33" customWidth="1"/>
+    <col min="12" max="12" width="42.857142857142854" style="33" customWidth="1"/>
+    <col min="13" max="13" width="34" style="33" customWidth="1"/>
+    <col min="14" max="14" width="33.285714285714285" style="33" customWidth="1"/>
+    <col min="15" max="15" width="38.857142857142854" style="33" customWidth="1"/>
+    <col min="16" max="16" width="42.285714285714285" style="33" customWidth="1"/>
+    <col min="17" max="17" width="35.142857142857146" style="33" customWidth="1"/>
+    <col min="18" max="18" width="28" style="33" customWidth="1"/>
+    <col min="19" max="19" width="31.857142857142858" style="33" customWidth="1"/>
+    <col min="20" max="20" width="46.142857142857146" style="33" customWidth="1"/>
+    <col min="21" max="21" width="45.714285714285715" style="33" customWidth="1"/>
+    <col min="22" max="22" width="45.285714285714285" style="33" customWidth="1"/>
+    <col min="23" max="23" width="45.42857142857143" style="33" customWidth="1"/>
+    <col min="24" max="24" width="43.57142857142857" style="33" customWidth="1"/>
+    <col min="25" max="25" width="32.857142857142854" style="33" customWidth="1"/>
+    <col min="26" max="26" width="41.42857142857143" style="33" customWidth="1"/>
+    <col min="27" max="27" width="26.285714285714285" style="33" customWidth="1"/>
+    <col min="28" max="28" width="37.857142857142854" style="33" customWidth="1"/>
+    <col min="29" max="29" width="28.571428571428573" style="33" customWidth="1"/>
+    <col min="30" max="30" width="24" style="33" customWidth="1"/>
+    <col min="31" max="16384" width="12.142857142857142" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.05">
@@ -1796,22 +1778,22 @@
         <v>11</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>82</v>
@@ -1931,10 +1913,10 @@
       </c>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD2" s="18"/>
     </row>
@@ -1980,7 +1962,7 @@
         <v>110</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -1991,10 +1973,10 @@
       </c>
       <c r="AA3" s="15"/>
       <c r="AB3" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC3" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD3" s="18"/>
     </row>
@@ -2048,7 +2030,7 @@
         <v>110</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -2059,10 +2041,10 @@
       </c>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD4" s="18"/>
     </row>
@@ -2108,7 +2090,7 @@
         <v>110</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -2119,10 +2101,10 @@
       </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD5" s="18"/>
     </row>
@@ -2177,19 +2159,19 @@
       </c>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD6" s="18"/>
     </row>
     <row r="7" spans="1:30" ht="12.8">
       <c r="A7" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2226,7 +2208,7 @@
         <v>110</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -2237,19 +2219,19 @@
       </c>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC7" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD7" s="18"/>
     </row>
     <row r="8" spans="1:30" ht="12.8">
       <c r="A8" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2258,7 +2240,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>63</v>
@@ -2282,7 +2264,7 @@
         <v>63</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>39</v>
@@ -2295,10 +2277,10 @@
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
@@ -2306,24 +2288,24 @@
         <v>111</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="12.8">
       <c r="A9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2358,10 +2340,10 @@
     </row>
     <row r="10" spans="1:30" ht="12.8">
       <c r="A10" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2370,7 +2352,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>63</v>
@@ -2394,7 +2376,7 @@
         <v>63</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>39</v>
@@ -2407,7 +2389,7 @@
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
@@ -2416,22 +2398,22 @@
         <v>111</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB10" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD10" s="18"/>
     </row>
     <row r="11" spans="1:30" ht="12.8">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2440,7 +2422,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>63</v>
@@ -2464,7 +2446,7 @@
         <v>63</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>39</v>
@@ -2477,33 +2459,33 @@
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W11" s="15"/>
       <c r="X11" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="18" t="s">
         <v>111</v>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC11" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD11" s="18"/>
     </row>
     <row r="12" spans="1:30" ht="12.8">
       <c r="A12" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2512,7 +2494,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>63</v>
@@ -2536,7 +2518,7 @@
         <v>63</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>39</v>
@@ -2548,48 +2530,48 @@
         <v>110</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z12" s="18" t="s">
         <v>111</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC12" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD12" s="18"/>
     </row>
     <row r="13" spans="1:30" ht="12.8">
       <c r="A13" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2618,22 +2600,22 @@
     </row>
     <row r="14" spans="1:30" ht="12.8">
       <c r="A14" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2662,20 +2644,20 @@
     </row>
     <row r="15" spans="1:30" ht="12.8">
       <c r="A15" s="34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
@@ -2685,7 +2667,7 @@
         <v>37</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>39</v>
@@ -2712,20 +2694,20 @@
     </row>
     <row r="16" spans="1:30" ht="12.8">
       <c r="A16" s="34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
@@ -2735,7 +2717,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>39</v>
@@ -2761,27 +2743,27 @@
       <c r="AD16" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="2.226" bottom="2.226" header="2.0291" footer="2.0291"/>
+  <pageMargins left="0.7" right="0.7" top="2.5209" bottom="2.5209" header="2.324" footer="2.324"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126b1998-9c8d-4d23-934a-66bd5273ec14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ea8f193e-62a6-41ff-a4b0-ee8317cb9e32}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="21.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="48.714285714285715" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="46.857142857142854" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="59.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="74.57142857142857" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="20.428571428571427" collapsed="true"/>
+    <col min="1" max="1" width="42.285714285714285" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.42857142857143" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.57142857142857" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62.714285714285715" style="3" customWidth="1"/>
+    <col min="5" max="5" width="78.85714285714286" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="21.571428571428573" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
@@ -2819,25 +2801,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354ff782-d33d-43f7-a723-866b68bac39c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4e0497eb-1335-484d-8b0a-58e1bcefca69}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="21.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" style="3" width="20.428571428571427" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="71.71428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="63.714285714285715" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="20.428571428571427" collapsed="true"/>
+    <col min="1" max="1" width="21.571428571428573" style="3"/>
+    <col min="2" max="2" width="75.85714285714286" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.28571428571429" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="21.571428571428573" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -2863,30 +2845,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e2eca647-ef80-4142-8f6d-a20f8e4b1e41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a50e4f68-e40b-450f-bc92-58efa4ff677e}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="21.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="54.42857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="81.57142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="63.142857142857146" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="55.857142857142854" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="48.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="53.42857142857143" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="3" width="48.285714285714285" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="45.285714285714285" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="20.428571428571427" collapsed="true"/>
+    <col min="1" max="1" width="57.57142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="86.28571428571429" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.71428571428571" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51" style="3" customWidth="1"/>
+    <col min="6" max="6" width="56.42857142857143" style="3" customWidth="1"/>
+    <col min="7" max="8" width="51" style="3" customWidth="1"/>
+    <col min="9" max="9" width="47.857142857142854" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="21.571428571428573" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.05">
@@ -3035,30 +3017,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931d571e-331b-44ec-9884-d8efa1443745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f3a16d47-8550-45ad-9ae3-076fee3f09cf}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="21.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="75.28571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="105.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="74.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="70.14285714285714" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="54.42857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="62.714285714285715" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="83.42857142857143" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="20.428571428571427" collapsed="true"/>
+    <col min="1" max="1" width="79.57142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="111.28571428571429" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.285714285714285" style="3" customWidth="1"/>
+    <col min="4" max="4" width="78.28571428571429" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.14285714285714" style="3" customWidth="1"/>
+    <col min="6" max="6" width="57.57142857142857" style="3" customWidth="1"/>
+    <col min="7" max="7" width="66.28571428571429" style="3" customWidth="1"/>
+    <col min="8" max="8" width="88.14285714285714" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="21.571428571428573" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.05">
@@ -3244,31 +3226,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1f64f7ee-c8ba-40ad-9d01-a4be313a85c7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb8d46b9-3fa9-4c18-8e8c-1f2a22519128}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="21.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="49.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="61.857142857142854" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="60.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="37.857142857142854" collapsed="true"/>
-    <col min="6" max="7" style="3" width="20.428571428571427" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="3" width="52.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.42857142857143" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="42.285714285714285" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="20.428571428571427" collapsed="true"/>
+    <col min="1" max="1" width="52.42857142857143" style="3" customWidth="1"/>
+    <col min="2" max="2" width="67.71428571428571" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.42857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="63.714285714285715" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40" style="3" customWidth="1"/>
+    <col min="6" max="7" width="21.571428571428573" style="3"/>
+    <col min="8" max="9" width="55.42857142857143" style="3" customWidth="1"/>
+    <col min="10" max="10" width="36.42857142857143" style="3" customWidth="1"/>
+    <col min="11" max="11" width="44.714285714285715" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="21.571428571428573" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.05">
@@ -3432,39 +3414,39 @@
       <c r="J6" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfbac0fc-20df-4ff0-a18e-96fdb2c1671a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435e31f0-3043-48f8-bfe6-5525df962740}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="S1">
+    <sheetView workbookViewId="0" topLeftCell="S1">
       <selection pane="topLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.284285714285716" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="21.424285714285716" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="59.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="13" width="65.28571428571429" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="43.57142857142857" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="13" width="64.28571428571429" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="13" width="53.42857142857143" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="13" width="48.142857142857146" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="13" width="59.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="13" width="51.42857142857143" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="13" width="45.714285714285715" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="13" width="44.714285714285715" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="13" width="40.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="13" width="19.1328125" collapsed="true"/>
-    <col min="16" max="20" customWidth="true" style="13" width="43.714285714285715" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" style="13" width="30.857142857142858" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="13" width="50.285714285714285" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="13" width="36.142857142857146" collapsed="true"/>
-    <col min="26" max="16384" style="13" width="20.285714285714285" collapsed="true"/>
+    <col min="1" max="1" width="42.285714285714285" style="13" customWidth="1"/>
+    <col min="2" max="2" width="62.42857142857143" style="13" customWidth="1"/>
+    <col min="3" max="3" width="69" style="13" customWidth="1"/>
+    <col min="4" max="4" width="46" style="13" customWidth="1"/>
+    <col min="5" max="6" width="68" style="13" customWidth="1"/>
+    <col min="7" max="7" width="56.42857142857143" style="13" customWidth="1"/>
+    <col min="8" max="9" width="50.857142857142854" style="13" customWidth="1"/>
+    <col min="10" max="10" width="62.42857142857143" style="13" customWidth="1"/>
+    <col min="11" max="11" width="54.42857142857143" style="13" customWidth="1"/>
+    <col min="12" max="12" width="48.285714285714285" style="13" customWidth="1"/>
+    <col min="13" max="13" width="47.285714285714285" style="13" customWidth="1"/>
+    <col min="14" max="14" width="42.285714285714285" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20.142857142857142" style="13" customWidth="1"/>
+    <col min="16" max="20" width="46.142857142857146" style="13" customWidth="1"/>
+    <col min="21" max="22" width="32.57142857142857" style="13" customWidth="1"/>
+    <col min="23" max="24" width="53.142857142857146" style="13" customWidth="1"/>
+    <col min="25" max="25" width="38.142857142857146" style="13" customWidth="1"/>
+    <col min="26" max="16384" width="21.428571428571427" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.05">
@@ -3635,7 +3617,7 @@
         <v>110</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -3700,7 +3682,7 @@
         <v>110</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -3757,7 +3739,7 @@
         <v>110</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -3814,7 +3796,7 @@
         <v>110</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -3837,10 +3819,10 @@
     </row>
     <row r="7" spans="1:25" ht="12.8">
       <c r="A7" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>107</v>
@@ -3871,7 +3853,7 @@
         <v>110</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -3894,13 +3876,13 @@
     </row>
     <row r="8" spans="1:25" ht="12.8">
       <c r="A8" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>63</v>
@@ -3924,7 +3906,7 @@
         <v>63</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>39</v>
@@ -3937,10 +3919,10 @@
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -3948,7 +3930,7 @@
         <v>111</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>22</v>
@@ -3960,15 +3942,15 @@
         <v>113</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.8">
       <c r="A9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3998,13 +3980,13 @@
     </row>
     <row r="10" spans="1:25" ht="12.8">
       <c r="A10" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>63</v>
@@ -4028,7 +4010,7 @@
         <v>63</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>39</v>
@@ -4041,7 +4023,7 @@
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -4065,13 +4047,13 @@
     </row>
     <row r="11" spans="1:25" ht="12.8">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>63</v>
@@ -4095,7 +4077,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>39</v>
@@ -4108,11 +4090,11 @@
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="18" t="s">
@@ -4134,13 +4116,13 @@
     </row>
     <row r="12" spans="1:25" ht="12.8">
       <c r="A12" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>63</v>
@@ -4164,7 +4146,7 @@
         <v>63</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>39</v>
@@ -4176,15 +4158,15 @@
         <v>110</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T12" s="18" t="s">
         <v>111</v>
@@ -4204,34 +4186,34 @@
       <c r="Y12" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25f8a1e8-a6fb-4fe5-a4c2-9945522a1a5b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{adb28869-8c7d-4bf6-a415-c120178c121b}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.284285714285716" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="21.424285714285716" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="37.142857142857146" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="63.142857142857146" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="13" width="55.42857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="48.714285714285715" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="58.857142857142854" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="13" width="57.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="13" width="40.57142857142857" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="13" width="50.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="13" width="48.57142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="13" width="39.57142857142857" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="13" width="26.285714285714285" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="13" width="32.42857142857143" collapsed="true"/>
-    <col min="13" max="16384" style="13" width="20.285714285714285" collapsed="true"/>
+    <col min="1" max="1" width="39.285714285714285" style="13" customWidth="1"/>
+    <col min="2" max="2" width="66.71428571428571" style="13" customWidth="1"/>
+    <col min="3" max="3" width="58.57142857142857" style="13" customWidth="1"/>
+    <col min="4" max="4" width="51.42857142857143" style="13" customWidth="1"/>
+    <col min="5" max="5" width="62.285714285714285" style="13" customWidth="1"/>
+    <col min="6" max="6" width="60.285714285714285" style="13" customWidth="1"/>
+    <col min="7" max="7" width="42.857142857142854" style="13" customWidth="1"/>
+    <col min="8" max="8" width="52.857142857142854" style="13" customWidth="1"/>
+    <col min="9" max="9" width="51.285714285714285" style="13" customWidth="1"/>
+    <col min="10" max="10" width="41.857142857142854" style="13" customWidth="1"/>
+    <col min="11" max="11" width="27.714285714285715" style="13" customWidth="1"/>
+    <col min="12" max="12" width="34.285714285714285" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="21.428571428571427" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.05">
@@ -4242,48 +4224,48 @@
         <v>11</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.8">
       <c r="A2" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>63</v>
@@ -4298,7 +4280,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -4306,16 +4288,16 @@
     </row>
     <row r="3" spans="1:12" ht="12.8">
       <c r="A3" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>63</v>
@@ -4324,7 +4306,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>39</v>
@@ -4337,62 +4319,62 @@
       <c r="L3" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
+  <pageMargins left="0.7" right="0.7" top="5.4725" bottom="5.4725" header="5.2756" footer="5.2756"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aae75a31-f5d7-4470-b0ba-d14ce2bead6c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04d80489-4010-4c70-932f-8b55407ace49}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="19.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="25" width="19.428571428571427" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="25" width="97.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="25" width="73.71428571428571" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="25" width="14.92578125" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="25" width="85.14285714285714" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="25" width="57.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="25" width="56.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="25" width="54.42857142857143" collapsed="true"/>
-    <col min="11" max="16384" style="32" width="18.285714285714285" collapsed="true"/>
+    <col min="1" max="1" width="20.428571428571427" style="25" customWidth="1"/>
+    <col min="2" max="2" width="102.85714285714286" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.714285714285714" style="25" customWidth="1"/>
+    <col min="5" max="7" width="90" style="25" customWidth="1"/>
+    <col min="8" max="8" width="60.285714285714285" style="25" customWidth="1"/>
+    <col min="9" max="9" width="59.714285714285715" style="25" customWidth="1"/>
+    <col min="10" max="10" width="57.57142857142857" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="19.285714285714285" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
       <c r="A1" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.05">
@@ -4400,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>106</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -4420,13 +4402,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>179</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -4446,7 +4428,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -4460,13 +4442,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -4480,13 +4462,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -4500,13 +4482,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4520,13 +4502,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4540,16 +4522,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -4562,13 +4544,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4582,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4602,13 +4584,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4622,13 +4604,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -4642,13 +4624,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -4662,13 +4644,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -4682,13 +4664,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -4702,13 +4684,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -4722,13 +4704,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -4742,13 +4724,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -4762,13 +4744,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>

--- a/CSM_Karthi/TestData/CSMTestData.xlsx
+++ b/CSM_Karthi/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="422">
   <si>
     <t>Stage</t>
   </si>
@@ -1351,6 +1351,9 @@
   </si>
   <si>
     <t>CSMParamUser2</t>
+  </si>
+  <si>
+    <t>CSMUser2</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
@@ -2121,6 +2124,23 @@
       </c>
       <c r="E3" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="2">
+        <v>123</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
